--- a/Behavior Tables.xlsx
+++ b/Behavior Tables.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Regressions" sheetId="1" r:id="rId1"/>
     <sheet name="Latencies" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Formatted" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -49,8 +50,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>adam2</author>
+  </authors>
+  <commentList>
+    <comment ref="K40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>adam2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0.0 average because gaze shifts were in both directions</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="124">
   <si>
     <t>slope</t>
   </si>
@@ -143,6 +178,285 @@
   </si>
   <si>
     <t>IEP</t>
+  </si>
+  <si>
+    <t>Latency (sd) during leftward movements</t>
+  </si>
+  <si>
+    <t>Centered</t>
+  </si>
+  <si>
+    <t>Pursuit</t>
+  </si>
+  <si>
+    <t>Gaze Shift</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>96.6(20.6)</t>
+  </si>
+  <si>
+    <t>238.9(54.0)</t>
+  </si>
+  <si>
+    <t>246.6(43.0)</t>
+  </si>
+  <si>
+    <t>96.2(20.0)</t>
+  </si>
+  <si>
+    <t>244.4(56.1)</t>
+  </si>
+  <si>
+    <t>254.4(59.7)</t>
+  </si>
+  <si>
+    <t>95.9(20.0)</t>
+  </si>
+  <si>
+    <t>187.0(21.2)</t>
+  </si>
+  <si>
+    <t>103.8(21.7)</t>
+  </si>
+  <si>
+    <t>105.8(22.8)</t>
+  </si>
+  <si>
+    <t>105.5(22.5)</t>
+  </si>
+  <si>
+    <t>202.9(43.7)</t>
+  </si>
+  <si>
+    <t>211.4(44.0)</t>
+  </si>
+  <si>
+    <t>220.2(39.9)</t>
+  </si>
+  <si>
+    <t>247.6(52.1)</t>
+  </si>
+  <si>
+    <t>220.2(38.9)</t>
+  </si>
+  <si>
+    <t>204.6(31.4)</t>
+  </si>
+  <si>
+    <t>93.7(16.5)</t>
+  </si>
+  <si>
+    <t>95.4(18.1)</t>
+  </si>
+  <si>
+    <t>95.5(18.5)</t>
+  </si>
+  <si>
+    <t>238.9(52.3)</t>
+  </si>
+  <si>
+    <t>216.1(48.9)</t>
+  </si>
+  <si>
+    <t>253.7(58.5)</t>
+  </si>
+  <si>
+    <t>257.5(59.0)</t>
+  </si>
+  <si>
+    <t>224.2(34.0)</t>
+  </si>
+  <si>
+    <t>200.7(25.5)</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>100.9(19.7)</t>
+  </si>
+  <si>
+    <t>101.5(20.1)</t>
+  </si>
+  <si>
+    <t>100.7(19.6)</t>
+  </si>
+  <si>
+    <t>212.2(41.4)</t>
+  </si>
+  <si>
+    <t>228.1(44.9)</t>
+  </si>
+  <si>
+    <t>251.8(51.2)</t>
+  </si>
+  <si>
+    <t>215.5(41.7)</t>
+  </si>
+  <si>
+    <t>210.3(33.2)</t>
+  </si>
+  <si>
+    <t>204.7(27.8)</t>
+  </si>
+  <si>
+    <t>Latency (sd) in milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step </t>
+  </si>
+  <si>
+    <t>98.1(23.5)</t>
+  </si>
+  <si>
+    <t>94.4(19.6)</t>
+  </si>
+  <si>
+    <t>121.1(38.3)</t>
+  </si>
+  <si>
+    <t>97.8(24.2)</t>
+  </si>
+  <si>
+    <t>91.4(14.8)</t>
+  </si>
+  <si>
+    <t>113.8(30.8)</t>
+  </si>
+  <si>
+    <t>115.2(27.1)</t>
+  </si>
+  <si>
+    <t>109.2(21.7)</t>
+  </si>
+  <si>
+    <t>141.9(41.1)</t>
+  </si>
+  <si>
+    <t>114.7(26.9)</t>
+  </si>
+  <si>
+    <t>106.9(24.3)</t>
+  </si>
+  <si>
+    <t>142.0(47.0)</t>
+  </si>
+  <si>
+    <t>221.4(71.8)</t>
+  </si>
+  <si>
+    <t>251.8(59.5)</t>
+  </si>
+  <si>
+    <t>242.9(30.4)</t>
+  </si>
+  <si>
+    <t>316.2(85.5)</t>
+  </si>
+  <si>
+    <t>238.1(52.9)</t>
+  </si>
+  <si>
+    <t>217.2(31.3)</t>
+  </si>
+  <si>
+    <t>248.8(61.2)</t>
+  </si>
+  <si>
+    <t>217.4(38.3)</t>
+  </si>
+  <si>
+    <t>208.2(32.0)</t>
+  </si>
+  <si>
+    <t>261.9(69.5)</t>
+  </si>
+  <si>
+    <t>218.3(26.3)</t>
+  </si>
+  <si>
+    <t>229.1(33.6)</t>
+  </si>
+  <si>
+    <t>230.8(26.5)</t>
+  </si>
+  <si>
+    <t>201.2(25.2)</t>
+  </si>
+  <si>
+    <t>202.3(29.6)</t>
+  </si>
+  <si>
+    <t>257.2(44.5)</t>
+  </si>
+  <si>
+    <t>206.8(31.3)</t>
+  </si>
+  <si>
+    <t>201.8(31.8)</t>
+  </si>
+  <si>
+    <t>289.1(47.3)</t>
+  </si>
+  <si>
+    <t>227.2(39.9)</t>
+  </si>
+  <si>
+    <t>237.8(46.7)</t>
+  </si>
+  <si>
+    <t>286.1(53.1)</t>
+  </si>
+  <si>
+    <t>207.2(34.2)</t>
+  </si>
+  <si>
+    <t>236.8(41.9)</t>
+  </si>
+  <si>
+    <t>1.4(3.2)</t>
+  </si>
+  <si>
+    <t>-9.8(6.8)</t>
+  </si>
+  <si>
+    <t>-24.6(7.9)</t>
+  </si>
+  <si>
+    <t>Amp (deg)</t>
+  </si>
+  <si>
+    <t>6.2(5.1)</t>
+  </si>
+  <si>
+    <t>12.7(8.0)</t>
+  </si>
+  <si>
+    <t>29.6(11.3)</t>
+  </si>
+  <si>
+    <t>0.0(3.4)</t>
+  </si>
+  <si>
+    <t>-7.4(3.5)</t>
+  </si>
+  <si>
+    <t>-18.9(8.9)</t>
+  </si>
+  <si>
+    <t>0.9(2.8)</t>
+  </si>
+  <si>
+    <t>10.5(6.0)</t>
+  </si>
+  <si>
+    <t>21.8(12.6)</t>
   </si>
 </sst>
 </file>
@@ -150,8 +464,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,7 +497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -271,11 +585,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,31 +757,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -328,22 +790,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -382,6 +844,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,12 +2589,1842 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+      <c r="C9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="47"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="47"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H18" s="47"/>
+      <c r="I18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H20" s="47"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="47"/>
+      <c r="I21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="47"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="47"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="N23" s="57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="47"/>
+      <c r="I24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="47"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="47"/>
+      <c r="I27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="J15:M15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="14">
+        <v>103.8434</v>
+      </c>
+      <c r="P2" s="14">
+        <v>105.8283</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>105.51560000000001</v>
+      </c>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14">
+        <v>96.591300000000004</v>
+      </c>
+      <c r="E3" s="14">
+        <v>96.167199999999994</v>
+      </c>
+      <c r="F3" s="14">
+        <v>95.859800000000007</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14">
+        <v>93.726299999999995</v>
+      </c>
+      <c r="J3" s="14">
+        <v>95.405500000000004</v>
+      </c>
+      <c r="K3" s="15">
+        <v>95.510800000000003</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="14">
+        <v>21.702999999999999</v>
+      </c>
+      <c r="P3" s="14">
+        <v>22.763999999999999</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>22.534300000000002</v>
+      </c>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14">
+        <v>20.626999999999999</v>
+      </c>
+      <c r="E4" s="14">
+        <v>19.9575</v>
+      </c>
+      <c r="F4" s="14">
+        <v>20.0153</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="14">
+        <v>16.4526</v>
+      </c>
+      <c r="J4" s="14">
+        <v>18.101800000000001</v>
+      </c>
+      <c r="K4" s="15">
+        <v>18.5488</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="14">
+        <v>202.9452</v>
+      </c>
+      <c r="P4" s="14">
+        <v>211.42</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>246.23220000000001</v>
+      </c>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14">
+        <v>238.91839999999999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>244.36330000000001</v>
+      </c>
+      <c r="F5" s="14">
+        <v>254.44909999999999</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14">
+        <v>216.13919999999999</v>
+      </c>
+      <c r="J5" s="14">
+        <v>238.8621</v>
+      </c>
+      <c r="K5" s="15">
+        <v>253.74590000000001</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="14">
+        <v>43.653599999999997</v>
+      </c>
+      <c r="P5" s="14">
+        <v>44.0154</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>55.0931</v>
+      </c>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="14">
+        <v>53.974800000000002</v>
+      </c>
+      <c r="E6" s="14">
+        <v>56.131100000000004</v>
+      </c>
+      <c r="F6" s="14">
+        <v>59.674100000000003</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="14">
+        <v>48.917900000000003</v>
+      </c>
+      <c r="J6" s="14">
+        <v>52.338900000000002</v>
+      </c>
+      <c r="K6" s="15">
+        <v>58.475000000000001</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="14">
+        <v>247.59569999999999</v>
+      </c>
+      <c r="P6" s="14">
+        <v>220.16249999999999</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>204.56950000000001</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14">
+        <v>246.55179999999999</v>
+      </c>
+      <c r="E7" s="14">
+        <v>209.53720000000001</v>
+      </c>
+      <c r="F7" s="14">
+        <v>186.95140000000001</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14">
+        <v>257.50229999999999</v>
+      </c>
+      <c r="J7" s="14">
+        <v>224.1788</v>
+      </c>
+      <c r="K7" s="15">
+        <v>200.74299999999999</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18">
+        <v>52.089799999999997</v>
+      </c>
+      <c r="P7" s="18">
+        <v>38.863100000000003</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>31.383299999999998</v>
+      </c>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14">
+        <v>43.042099999999998</v>
+      </c>
+      <c r="E8" s="14">
+        <v>27.743200000000002</v>
+      </c>
+      <c r="F8" s="14">
+        <v>21.2194</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="14">
+        <v>59.034100000000002</v>
+      </c>
+      <c r="J8" s="14">
+        <v>34.043100000000003</v>
+      </c>
+      <c r="K8" s="15">
+        <v>25.548500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="14">
+        <v>100.86499999999999</v>
+      </c>
+      <c r="L13" s="14">
+        <v>101.47750000000001</v>
+      </c>
+      <c r="M13" s="15">
+        <v>100.71040000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="14">
+        <v>19.702999999999999</v>
+      </c>
+      <c r="L14" s="14">
+        <v>20.147400000000001</v>
+      </c>
+      <c r="M14" s="15">
+        <v>19.573699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="14">
+        <v>212.15100000000001</v>
+      </c>
+      <c r="L15" s="14">
+        <v>228.11449999999999</v>
+      </c>
+      <c r="M15" s="15">
+        <v>251.7595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="14">
+        <v>41.402700000000003</v>
+      </c>
+      <c r="L16" s="14">
+        <v>44.874099999999999</v>
+      </c>
+      <c r="M16" s="15">
+        <v>51.218800000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="14">
+        <v>215.48150000000001</v>
+      </c>
+      <c r="L17" s="14">
+        <v>210.32300000000001</v>
+      </c>
+      <c r="M17" s="15">
+        <v>204.6808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18">
+        <v>41.694499999999998</v>
+      </c>
+      <c r="L18" s="18">
+        <v>33.151499999999999</v>
+      </c>
+      <c r="M18" s="19">
+        <v>27.8034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="20">
+        <v>98.108599999999996</v>
+      </c>
+      <c r="L26" s="20">
+        <v>94.365700000000004</v>
+      </c>
+      <c r="M26" s="20">
+        <v>121.0667</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="20">
+        <v>97.77</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>91.382000000000005</v>
+      </c>
+      <c r="R26" s="21">
+        <v>113.7903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="20">
+        <v>23.535699999999999</v>
+      </c>
+      <c r="L27" s="20">
+        <v>19.607199999999999</v>
+      </c>
+      <c r="M27" s="20">
+        <v>38.316299999999998</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="20">
+        <v>24.213000000000001</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>14.813800000000001</v>
+      </c>
+      <c r="R27" s="21">
+        <v>30.767199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C28" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="20">
+        <v>212.39580000000001</v>
+      </c>
+      <c r="L28" s="20">
+        <v>251.78139999999999</v>
+      </c>
+      <c r="M28" s="20">
+        <v>242.9118</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="20">
+        <v>316.15649999999999</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>238.08260000000001</v>
+      </c>
+      <c r="R28" s="21">
+        <v>217.17740000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="20">
+        <v>71.775400000000005</v>
+      </c>
+      <c r="L29" s="20">
+        <v>59.465499999999999</v>
+      </c>
+      <c r="M29" s="20">
+        <v>30.4345</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="20">
+        <v>85.513800000000003</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>52.897300000000001</v>
+      </c>
+      <c r="R29" s="21">
+        <v>31.276900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="20">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="L30" s="20">
+        <v>-9.7716999999999992</v>
+      </c>
+      <c r="M30" s="20">
+        <v>-24.6448</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="20">
+        <v>6.2267999999999999</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>12.7082</v>
+      </c>
+      <c r="R30" s="21">
+        <v>29.587900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="20">
+        <v>3.2401</v>
+      </c>
+      <c r="L31" s="20">
+        <v>6.8136000000000001</v>
+      </c>
+      <c r="M31" s="20">
+        <v>7.8613999999999997</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="20">
+        <v>5.1449999999999996</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>8.0166000000000004</v>
+      </c>
+      <c r="R31" s="21">
+        <v>11.258699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="20">
+        <v>230.80590000000001</v>
+      </c>
+      <c r="L32" s="20">
+        <v>201.16329999999999</v>
+      </c>
+      <c r="M32" s="20">
+        <v>202.28870000000001</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="20">
+        <v>257.19779999999997</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>206.8347</v>
+      </c>
+      <c r="R32" s="21">
+        <v>201.79089999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="20">
+        <v>26.474499999999999</v>
+      </c>
+      <c r="L33" s="20">
+        <v>25.236599999999999</v>
+      </c>
+      <c r="M33" s="20">
+        <v>29.5504</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="20">
+        <v>44.459699999999998</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>31.332599999999999</v>
+      </c>
+      <c r="R33" s="21">
+        <v>31.7545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="45"/>
+      <c r="C35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="20">
+        <v>115.19029999999999</v>
+      </c>
+      <c r="L36" s="20">
+        <v>109.1759</v>
+      </c>
+      <c r="M36" s="20">
+        <v>141.93700000000001</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="20">
+        <v>115.66630000000001</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>106.8794</v>
+      </c>
+      <c r="R36" s="21">
+        <v>142.02109999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="20">
+        <v>27.101900000000001</v>
+      </c>
+      <c r="L37" s="20">
+        <v>21.706600000000002</v>
+      </c>
+      <c r="M37" s="20">
+        <v>41.127899999999997</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="20">
+        <v>26.9024</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>24.269100000000002</v>
+      </c>
+      <c r="R37" s="21">
+        <v>47.031100000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="20">
+        <v>248.75839999999999</v>
+      </c>
+      <c r="L38" s="20">
+        <v>217.39680000000001</v>
+      </c>
+      <c r="M38" s="20">
+        <v>208.15870000000001</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="20">
+        <v>261.86930000000001</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>218.3244</v>
+      </c>
+      <c r="R38" s="21">
+        <v>229.11349999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="20">
+        <v>61.174500000000002</v>
+      </c>
+      <c r="L39" s="20">
+        <v>38.299700000000001</v>
+      </c>
+      <c r="M39" s="20">
+        <v>32.004600000000003</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="20">
+        <v>69.466999999999999</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>26.275200000000002</v>
+      </c>
+      <c r="R39" s="21">
+        <v>33.561100000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="20">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="L40" s="20">
+        <v>-7.3868</v>
+      </c>
+      <c r="M40" s="20">
+        <v>-18.857399999999998</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="20">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="Q40" s="20">
+        <v>10.465999999999999</v>
+      </c>
+      <c r="R40" s="21">
+        <v>21.7822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="20">
+        <v>3.4058999999999999</v>
+      </c>
+      <c r="L41" s="20">
+        <v>3.5465</v>
+      </c>
+      <c r="M41" s="20">
+        <v>8.8675999999999995</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="20">
+        <v>2.7642000000000002</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>6.0401999999999996</v>
+      </c>
+      <c r="R41" s="21">
+        <v>12.6203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
+      <c r="J42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="20">
+        <v>289.11599999999999</v>
+      </c>
+      <c r="L42" s="20">
+        <v>227.17140000000001</v>
+      </c>
+      <c r="M42" s="20">
+        <v>237.8416</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="20">
+        <v>286.12670000000003</v>
+      </c>
+      <c r="Q42" s="20">
+        <v>207.19450000000001</v>
+      </c>
+      <c r="R42" s="21">
+        <v>236.8349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="22">
+        <v>47.338000000000001</v>
+      </c>
+      <c r="L43" s="22">
+        <v>39.909300000000002</v>
+      </c>
+      <c r="M43" s="22">
+        <v>46.650599999999997</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="22">
+        <v>53.111800000000002</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>34.192300000000003</v>
+      </c>
+      <c r="R43" s="23">
+        <v>41.923099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C27:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Behavior Tables.xlsx
+++ b/Behavior Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Regressions" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="213">
   <si>
     <t>slope</t>
   </si>
@@ -457,15 +457,283 @@
   </si>
   <si>
     <t>21.8(12.6)</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Latency (SD) during leftward movements</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>96.6 (20.6)</t>
+  </si>
+  <si>
+    <t>238.9 (54.0)</t>
+  </si>
+  <si>
+    <t>246.6 (43.0)</t>
+  </si>
+  <si>
+    <t>96.2 (20.0)</t>
+  </si>
+  <si>
+    <t>244.4 (56.1)</t>
+  </si>
+  <si>
+    <t>254.4 (59.7)</t>
+  </si>
+  <si>
+    <t>95.9 (20.0)</t>
+  </si>
+  <si>
+    <t>187.0 (21.2)</t>
+  </si>
+  <si>
+    <t>93.7 (16.5)</t>
+  </si>
+  <si>
+    <t>216.1 (48.9)</t>
+  </si>
+  <si>
+    <t>257.5 (59.0)</t>
+  </si>
+  <si>
+    <t>95.4 (18.1)</t>
+  </si>
+  <si>
+    <t>238.9 (52.3)</t>
+  </si>
+  <si>
+    <t>224.2 (34.0)</t>
+  </si>
+  <si>
+    <t>95.5 (18.5)</t>
+  </si>
+  <si>
+    <t>253.7 (58.5)</t>
+  </si>
+  <si>
+    <t>200.7 (25.5)</t>
+  </si>
+  <si>
+    <t>103.8 (21.7)</t>
+  </si>
+  <si>
+    <t>202.9 (43.7)</t>
+  </si>
+  <si>
+    <t>247.6 (52.1)</t>
+  </si>
+  <si>
+    <t>105.8 (22.8)</t>
+  </si>
+  <si>
+    <t>211.4 (44.0)</t>
+  </si>
+  <si>
+    <t>220.2 (38.9)</t>
+  </si>
+  <si>
+    <t>105.5 (22.5)</t>
+  </si>
+  <si>
+    <t>220.2 (39.9)</t>
+  </si>
+  <si>
+    <t>204.6 (31.4)</t>
+  </si>
+  <si>
+    <t>100.9 (19.7)</t>
+  </si>
+  <si>
+    <t>212.2 (41.4)</t>
+  </si>
+  <si>
+    <t>215.5 (41.7)</t>
+  </si>
+  <si>
+    <t>101.5 (20.1)</t>
+  </si>
+  <si>
+    <t>228.1 (44.9)</t>
+  </si>
+  <si>
+    <t>210.3 (33.2)</t>
+  </si>
+  <si>
+    <t>100.7 (19.6)</t>
+  </si>
+  <si>
+    <t>251.8 (51.2)</t>
+  </si>
+  <si>
+    <t>204.7 (27.8)</t>
+  </si>
+  <si>
+    <t>98.1 (23.5)</t>
+  </si>
+  <si>
+    <t>94.4 (19.6)</t>
+  </si>
+  <si>
+    <t>121.1 (38.3)</t>
+  </si>
+  <si>
+    <t>97.8 (24.2)</t>
+  </si>
+  <si>
+    <t>91.4 (14.8)</t>
+  </si>
+  <si>
+    <t>113.8 (30.8)</t>
+  </si>
+  <si>
+    <t>115.2 (27.1)</t>
+  </si>
+  <si>
+    <t>109.2 (21.7)</t>
+  </si>
+  <si>
+    <t>141.9 (41.1)</t>
+  </si>
+  <si>
+    <t>114.7 (26.9)</t>
+  </si>
+  <si>
+    <t>106.9 (24.3)</t>
+  </si>
+  <si>
+    <t>142.0 (47.0)</t>
+  </si>
+  <si>
+    <t>221.4 (71.8)</t>
+  </si>
+  <si>
+    <t>251.8 (59.5)</t>
+  </si>
+  <si>
+    <t>316.2 (85.5)</t>
+  </si>
+  <si>
+    <t>238.1 (52.9)</t>
+  </si>
+  <si>
+    <t>217.2 (31.3)</t>
+  </si>
+  <si>
+    <t>248.8 (61.2)</t>
+  </si>
+  <si>
+    <t>217.4 (38.3)</t>
+  </si>
+  <si>
+    <t>208.2 (32.0)</t>
+  </si>
+  <si>
+    <t>261.9 (69.5)</t>
+  </si>
+  <si>
+    <t>218.3 (26.3)</t>
+  </si>
+  <si>
+    <t>229.1 (33.6)</t>
+  </si>
+  <si>
+    <t>242.9 (30.4)</t>
+  </si>
+  <si>
+    <t>230.8 (26.5)</t>
+  </si>
+  <si>
+    <t>201.2 (25.2)</t>
+  </si>
+  <si>
+    <t>202.3 (29.6)</t>
+  </si>
+  <si>
+    <t>257.2 (44.5)</t>
+  </si>
+  <si>
+    <t>206.8 (31.3)</t>
+  </si>
+  <si>
+    <t>201.8 (31.8)</t>
+  </si>
+  <si>
+    <t>289.1 (47.3)</t>
+  </si>
+  <si>
+    <t>227.2 (39.9)</t>
+  </si>
+  <si>
+    <t>237.8 (46.7)</t>
+  </si>
+  <si>
+    <t>286.1 (53.1)</t>
+  </si>
+  <si>
+    <t>207.2 (34.2)</t>
+  </si>
+  <si>
+    <t>236.8 (41.9)</t>
+  </si>
+  <si>
+    <t>1.4 (3.2)</t>
+  </si>
+  <si>
+    <t>-9.8 (6.8)</t>
+  </si>
+  <si>
+    <t>-24.6 (7.9)</t>
+  </si>
+  <si>
+    <t>6.2 (5.1)</t>
+  </si>
+  <si>
+    <t>12.7 (8.0)</t>
+  </si>
+  <si>
+    <t>29.6 (11.3)</t>
+  </si>
+  <si>
+    <t>0.0 (3.4)</t>
+  </si>
+  <si>
+    <t>-7.4 (3.5)</t>
+  </si>
+  <si>
+    <t>-18.9 (8.9)</t>
+  </si>
+  <si>
+    <t>0.9 (2.8)</t>
+  </si>
+  <si>
+    <t>10.5 (6.0)</t>
+  </si>
+  <si>
+    <t>21.8 (12.6)</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Latency (SD) in milliseconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="\(##.#\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -737,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,24 +1140,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2589,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,15 +2890,15 @@
     <col min="14" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="40" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
         <v>9</v>
@@ -2640,7 +2927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
@@ -2656,8 +2943,20 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2674,8 +2973,17 @@
       <c r="F5" s="39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="37" t="s">
         <v>9</v>
@@ -2689,8 +2997,23 @@
       <c r="F6" s="42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>63</v>
       </c>
@@ -2706,8 +3029,23 @@
       <c r="F7" s="42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="38" t="s">
         <v>4</v>
@@ -2722,7 +3060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="37" t="s">
         <v>9</v>
@@ -2736,8 +3074,20 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -2753,8 +3103,14 @@
       <c r="F10" s="42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +3128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="37" t="s">
         <v>9</v>
@@ -2786,8 +3142,20 @@
       <c r="F12" s="42" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" t="s">
+        <v>137</v>
+      </c>
+      <c r="U12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>63</v>
       </c>
@@ -2803,8 +3171,23 @@
       <c r="F13" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" t="s">
+        <v>140</v>
+      </c>
+      <c r="U13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" s="37" t="s">
         <v>4</v>
       </c>
@@ -2817,26 +3200,42 @@
       <c r="F14" s="42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55" t="s">
+      <c r="R14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>142</v>
+      </c>
+      <c r="T14" t="s">
+        <v>143</v>
+      </c>
+      <c r="U14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H15" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H16" s="47"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="5" t="s">
-        <v>74</v>
-      </c>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16" s="59"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2846,254 +3245,344 @@
       <c r="M16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H17" s="47"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43" t="s">
+      <c r="Q16" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H18" s="47"/>
+      <c r="S16" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" t="s">
+        <v>146</v>
+      </c>
+      <c r="U16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="59"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17" t="s">
+        <v>149</v>
+      </c>
+      <c r="U17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="56">
+        <v>24</v>
+      </c>
+      <c r="H18" s="59"/>
       <c r="I18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H19" s="47" t="s">
+      <c r="K18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="P18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" t="s">
+        <v>152</v>
+      </c>
+      <c r="U18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H19" s="59" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H20" s="47"/>
+      <c r="K19" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="59"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H21" s="47"/>
+      <c r="K20" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T20" t="s">
+        <v>158</v>
+      </c>
+      <c r="U20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="59"/>
       <c r="I21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H22" s="47"/>
+      <c r="K21" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="R21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>160</v>
+      </c>
+      <c r="T21" t="s">
+        <v>161</v>
+      </c>
+      <c r="U21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="59"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H23" s="47"/>
+      <c r="K22" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H23" s="59"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23" s="57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H24" s="47"/>
+      <c r="K23" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H24" s="59"/>
       <c r="I24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" s="58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H25" s="47" t="s">
+      <c r="K24" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="N24" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H25" s="59" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25" s="58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H26" s="47"/>
+      <c r="K25" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H26" s="59"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H27" s="47"/>
+      <c r="K26" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N26" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H27" s="59"/>
       <c r="I27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N27" s="57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="8:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60" t="s">
+      <c r="K27" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H28" s="61"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="L28" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" s="63" t="s">
-        <v>123</v>
+      <c r="K28" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" s="64" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="K15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,14 +3895,20 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
       <c r="C12" s="40" t="s">
         <v>30</v>
       </c>
@@ -3763,12 +4258,12 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" t="s">
         <v>34</v>
       </c>
@@ -4425,6 +4920,7 @@
     <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>